--- a/media/documents/Timetable_TE_Computer.xlsx
+++ b/media/documents/Timetable_TE_Computer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="31">
   <si>
     <t>Monday</t>
   </si>
@@ -22,6 +22,9 @@
     <t>8:00-9:00</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
     <t>DMV TOC B-101</t>
   </si>
   <si>
@@ -34,10 +37,16 @@
     <t>Saturday</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>Tuesday</t>
   </si>
   <si>
     <t>Wednesday</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>NNS TOC B-201</t>
@@ -429,141 +438,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="31" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:21">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
       <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="T5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="U5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/media/documents/Timetable_TE_Computer.xlsx
+++ b/media/documents/Timetable_TE_Computer.xlsx
@@ -14,90 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Monday</t>
   </si>
   <si>
     <t>8:00-9:00</t>
-  </si>
-  <si>
-    <t>DMV TOC B-101</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>NNS TOC B-201</t>
-  </si>
-  <si>
-    <t>MPK DBMS B-101</t>
-  </si>
-  <si>
-    <t>YDD DBMS B-201</t>
-  </si>
-  <si>
-    <t>MPK DBMS B-201</t>
-  </si>
-  <si>
-    <t>YDD DBMS B-202</t>
-  </si>
-  <si>
-    <t>MPK DBMS B-202</t>
-  </si>
-  <si>
-    <t>9:00-10:00</t>
-  </si>
-  <si>
-    <t>NNS TOC B-101</t>
-  </si>
-  <si>
-    <t>YDD DBMS B-101</t>
-  </si>
-  <si>
-    <t>10:15-11:15</t>
-  </si>
-  <si>
-    <t>PPW CN B-201</t>
-  </si>
-  <si>
-    <t>S11 CN B-202</t>
-  </si>
-  <si>
-    <t>PPW CN B-202</t>
-  </si>
-  <si>
-    <t>PPW CN B-101</t>
-  </si>
-  <si>
-    <t>S11 CN B-101</t>
-  </si>
-  <si>
-    <t>S11 CN B-201</t>
-  </si>
-  <si>
-    <t>11:15-12:15</t>
-  </si>
-  <si>
-    <t>15:30-16:30</t>
-  </si>
-  <si>
-    <t>17:30-18:30</t>
-  </si>
-  <si>
-    <t>DMV TOC B-301</t>
   </si>
 </sst>
 </file>
@@ -429,141 +351,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:7">
       <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/media/documents/Timetable_TE_Computer.xlsx
+++ b/media/documents/Timetable_TE_Computer.xlsx
@@ -14,12 +14,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="39">
   <si>
     <t>Monday</t>
   </si>
   <si>
     <t>8:00-9:00</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>DMV TOC B-101</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>NNS TOC B-201</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>NNS TOC B103</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>SBT SEPM B-201</t>
+  </si>
+  <si>
+    <t>FMI SEPM B-201</t>
+  </si>
+  <si>
+    <t>PPW CN B-201</t>
+  </si>
+  <si>
+    <t>S11 CN B-202</t>
+  </si>
+  <si>
+    <t>PPW CN B-202</t>
+  </si>
+  <si>
+    <t>9:00-10:00</t>
+  </si>
+  <si>
+    <t>DMV TOC B104</t>
+  </si>
+  <si>
+    <t>FMI SEPM B-101</t>
+  </si>
+  <si>
+    <t>PPW CN B-101</t>
+  </si>
+  <si>
+    <t>10:15-11:15</t>
+  </si>
+  <si>
+    <t>NNS TOC B-101</t>
+  </si>
+  <si>
+    <t>DMV TOC B-201</t>
+  </si>
+  <si>
+    <t>11:15-12:15</t>
+  </si>
+  <si>
+    <t>DM SEPM B-101</t>
+  </si>
+  <si>
+    <t>FMI SEPM B-202</t>
+  </si>
+  <si>
+    <t>DM SEPM B-202</t>
+  </si>
+  <si>
+    <t>13:15-14:15</t>
+  </si>
+  <si>
+    <t>DM SEPM B-201</t>
+  </si>
+  <si>
+    <t>14:15-15:15</t>
+  </si>
+  <si>
+    <t>S11 CN B-101</t>
+  </si>
+  <si>
+    <t>15:30-16:30</t>
+  </si>
+  <si>
+    <t>NNS TOC B-301</t>
+  </si>
+  <si>
+    <t>SBT SEPM B-101</t>
+  </si>
+  <si>
+    <t>S11 CN B-201</t>
+  </si>
+  <si>
+    <t>16:30-17:30</t>
+  </si>
+  <si>
+    <t>17:30-18:30</t>
   </si>
 </sst>
 </file>
@@ -351,20 +462,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="31" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="G1" t="s">
+    <row r="1" spans="1:19">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
         <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
